--- a/biology/Origine et évolution du vivant/Série_2/Série_2.xlsx
+++ b/biology/Origine et évolution du vivant/Série_2/Série_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9rie_2</t>
+          <t>Série_2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La série 2 est une époque géologique du Cambrien inférieur, entre -521 et -509 millions d'années.
 Elle correspond approximativement avec le Terreneuvien aux anciennes notions de Géorgien.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9rie_2</t>
+          <t>Série_2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La division du Cambrien s'est effectué par vote en décembre 2004 de l'ISCS (International Sub-commission on Cambrian Stratigraphy), il demeure le seul système n'ayant pas encore de biostratigraphie complètement établie à l'échelle mondiale à cause du fort endémisme de la faune.
 La base de la série 2 (521 Ma), et de l'étage 3, est marquée par l'apparition des trilobites, probablement la famille Fallotaspididae. L'étage 4 est marqué par l'apparition du trilobite Olenellus au Laurentia ou des Redlichiidae au Gondwana.
-Les limites actuelle du Cambrien, dans lequel s'intègre la Série 2, sont présentées ci-après[1],[2] :
+Les limites actuelle du Cambrien, dans lequel s'intègre la Série 2, sont présentées ci-après, :
 </t>
         </is>
       </c>
